--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/10/seed1/result_data_RandomForest.xlsx
@@ -502,13 +502,13 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.05</v>
+        <v>-14.12869999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5027</v>
+        <v>13.4468</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.18519999999999</v>
+        <v>13.17239999999999</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.7856</v>
+        <v>-12.0011</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>14.23959999999999</v>
+        <v>14.19989999999999</v>
       </c>
     </row>
     <row r="9">
@@ -706,13 +706,13 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.806</v>
+        <v>-11.8704</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>13.20230000000001</v>
+        <v>12.9125</v>
       </c>
     </row>
     <row r="17">
